--- a/Data/ttest_H1_.xlsx
+++ b/Data/ttest_H1_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gallarusindustrysolutions-my.sharepoint.com/personal/sclifford_gis_ie/Documents/MscDataAnalytics/MScDataAnalyticsCA2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E442877C-7F11-4015-801E-60412173AF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9821E686-F7DF-4553-AF98-9D228783DEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-2340" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33555" yWindow="555" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>AT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>EE</t>
   </si>
   <si>
     <t>ES</t>
   </si>
   <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>ME</t>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>MK</t>
   </si>
   <si>
     <t>MT</t>
@@ -40,16 +67,7 @@
     <t>NL</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>SI</t>
+    <t>NO</t>
   </si>
   <si>
     <t>IS-IP</t>
@@ -99,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,76 +140,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,16 +163,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -249,7 +198,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFFC7CE"/>
       </font>
       <fill>
         <patternFill>
@@ -257,8 +206,24 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC6EFCE"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC7CE"/>
+      <color rgb="FFC6EFCE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -591,205 +556,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="17" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7" t="b">
-        <v>1</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8" t="b">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7" t="b">
-        <v>1</v>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8" t="b">
-        <v>1</v>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K5">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:Q5">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>TRUE</formula>
+      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>